--- a/사원.xlsx
+++ b/사원.xlsx
@@ -8,14 +8,19 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\kdt\sql\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60B0874B-C2F3-4B28-A06E-93CABD84F0FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9FA22027-5C90-45B9-8131-EE1B990944CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="35070" yWindow="1215" windowWidth="20880" windowHeight="11835" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="24240" windowHeight="13740" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="워크시트 익스포트" sheetId="1" r:id="rId1"/>
-    <sheet name="SQL" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet2" sheetId="4" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="3" r:id="rId3"/>
+    <sheet name="SQL" sheetId="2" r:id="rId4"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'워크시트 익스포트'!$C$2:$C$21</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -32,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="53">
   <si>
     <t>EMPNO</t>
   </si>
@@ -121,16 +126,90 @@
     <t>select * from emp</t>
   </si>
   <si>
-    <t>총합계</t>
-  </si>
-  <si>
-    <t>10 요약</t>
-  </si>
-  <si>
-    <t>20 요약</t>
-  </si>
-  <si>
-    <t>30 요약</t>
+    <t xml:space="preserve"> col1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> col2</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> col3</t>
+  </si>
+  <si>
+    <t>null</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ACCOUNTING</t>
+  </si>
+  <si>
+    <t>NEW YORK</t>
+  </si>
+  <si>
+    <t>RESEARCH</t>
+  </si>
+  <si>
+    <t>DALLAS</t>
+  </si>
+  <si>
+    <t>SALES</t>
+  </si>
+  <si>
+    <t>CHICAGO</t>
+  </si>
+  <si>
+    <t>OPERATIONS</t>
+  </si>
+  <si>
+    <t>BOSTON</t>
+  </si>
+  <si>
+    <t>DNAME</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>DOC</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>zzzzz</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>LA</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>GRADE</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>LOSAL</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>HISAL</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>EMP</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>DEPT</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>SALGRADE</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>humanresources</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>MANAGER</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -138,7 +217,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="177" formatCode="m/d/yyyy"/>
+    <numFmt numFmtId="176" formatCode="m/d/yyyy"/>
   </numFmts>
   <fonts count="5">
     <font>
@@ -162,31 +241,66 @@
     <font>
       <b/>
       <sz val="11"/>
-      <name val="Dialog"/>
+      <color indexed="8"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="14"/>
       <color indexed="8"/>
       <name val="맑은 고딕"/>
-      <family val="2"/>
+      <family val="3"/>
+      <charset val="129"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="3">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -195,20 +309,32 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -527,458 +653,576 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H20"/>
+  <dimension ref="A1:P17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I3" sqref="I3"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="M11" sqref="M11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" outlineLevelRow="2"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="10.75" customWidth="1"/>
+    <col min="3" max="3" width="11.125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.25" customWidth="1"/>
     <col min="5" max="5" width="11.125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="8" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
-      <c r="A1" t="s">
+    <row r="1" spans="1:16" ht="20.25">
+      <c r="A1" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+      <c r="E1" s="9"/>
+      <c r="F1" s="9"/>
+      <c r="G1" s="9"/>
+      <c r="H1" s="9"/>
+      <c r="J1" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="K1" s="9"/>
+      <c r="L1" s="9"/>
+      <c r="N1" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="O1" s="9"/>
+      <c r="P1" s="9"/>
+    </row>
+    <row r="2" spans="1:16">
+      <c r="A2" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B2" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C2" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D2" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E2" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F2" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G2" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H2" s="8" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" outlineLevel="2">
-      <c r="A2" s="1">
+      <c r="J2" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="K2" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="L2" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="N2" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="O2" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="P2" s="8" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16">
+      <c r="A3" s="3">
         <v>7782</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B3" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C3" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="D3" s="3">
+        <v>7839</v>
+      </c>
+      <c r="E3" s="4">
+        <v>29746</v>
+      </c>
+      <c r="F3" s="3">
+        <v>2450</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="H3" s="3">
+        <v>10</v>
+      </c>
+      <c r="J3" s="2">
+        <v>10</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="N3" s="2">
+        <v>1</v>
+      </c>
+      <c r="O3" s="2">
+        <v>700</v>
+      </c>
+      <c r="P3" s="2">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16">
+      <c r="A4" s="3">
+        <v>7839</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4" s="4">
+        <v>29907</v>
+      </c>
+      <c r="F4" s="3">
+        <v>5000</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="H4" s="3">
+        <v>10</v>
+      </c>
+      <c r="J4" s="2">
+        <v>20</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="N4" s="2">
+        <v>2</v>
+      </c>
+      <c r="O4" s="2">
+        <v>1201</v>
+      </c>
+      <c r="P4" s="2">
+        <v>1400</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" s="1" customFormat="1">
+      <c r="A5" s="5">
+        <v>7934</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5" s="5">
+        <v>7782</v>
+      </c>
+      <c r="E5" s="7">
+        <v>29974</v>
+      </c>
+      <c r="F5" s="5">
+        <v>1300</v>
+      </c>
+      <c r="G5" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="H5" s="5">
+        <v>10</v>
+      </c>
+      <c r="J5" s="2">
+        <v>30</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="L5" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="N5" s="6">
+        <v>3</v>
+      </c>
+      <c r="O5" s="6">
+        <v>1401</v>
+      </c>
+      <c r="P5" s="6">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" s="1" customFormat="1">
+      <c r="A6" s="5">
+        <v>7369</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D6" s="5">
+        <v>7902</v>
+      </c>
+      <c r="E6" s="7">
+        <v>29572</v>
+      </c>
+      <c r="F6" s="5">
+        <v>800</v>
+      </c>
+      <c r="G6" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="H6" s="5">
+        <v>20</v>
+      </c>
+      <c r="J6" s="2">
+        <v>40</v>
+      </c>
+      <c r="K6" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="L6" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="N6" s="6">
+        <v>4</v>
+      </c>
+      <c r="O6" s="6">
+        <v>2001</v>
+      </c>
+      <c r="P6" s="6">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16">
+      <c r="A7" s="3">
+        <v>7566</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="D2" s="1">
+      <c r="D7" s="3">
         <v>7839</v>
       </c>
-      <c r="E2" s="2">
-        <v>29746</v>
-      </c>
-      <c r="F2" s="1">
-        <v>2450</v>
-      </c>
-      <c r="G2" t="s">
-        <v>10</v>
-      </c>
-      <c r="H2" s="1">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" outlineLevel="2">
-      <c r="A3" s="1">
+      <c r="E7" s="4">
+        <v>29678</v>
+      </c>
+      <c r="F7" s="3">
+        <v>2975</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="H7" s="3">
+        <v>20</v>
+      </c>
+      <c r="J7" s="6">
+        <v>50</v>
+      </c>
+      <c r="K7" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="L7" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="N7" s="2">
+        <v>5</v>
+      </c>
+      <c r="O7" s="2">
+        <v>3001</v>
+      </c>
+      <c r="P7" s="2">
+        <v>9999</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16">
+      <c r="A8" s="3">
+        <v>7788</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D8" s="3">
+        <v>7566</v>
+      </c>
+      <c r="E8" s="4">
+        <v>30294</v>
+      </c>
+      <c r="F8" s="3">
+        <v>3000</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="H8" s="3">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" s="1" customFormat="1">
+      <c r="A9" s="5">
+        <v>7876</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D9" s="5">
+        <v>7788</v>
+      </c>
+      <c r="E9" s="7">
+        <v>30328</v>
+      </c>
+      <c r="F9" s="5">
+        <v>1100</v>
+      </c>
+      <c r="G9" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="H9" s="5">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16">
+      <c r="A10" s="3">
+        <v>7902</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D10" s="3">
+        <v>7566</v>
+      </c>
+      <c r="E10" s="4">
+        <v>29923</v>
+      </c>
+      <c r="F10" s="3">
+        <v>3000</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="H10" s="3">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16">
+      <c r="A11" s="3">
+        <v>7499</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D11" s="3">
+        <v>7698</v>
+      </c>
+      <c r="E11" s="4">
+        <v>29637</v>
+      </c>
+      <c r="F11" s="3">
+        <v>1600</v>
+      </c>
+      <c r="G11" s="3">
+        <v>300</v>
+      </c>
+      <c r="H11" s="3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16">
+      <c r="A12" s="3">
+        <v>7521</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D12" s="3">
+        <v>7698</v>
+      </c>
+      <c r="E12" s="4">
+        <v>29639</v>
+      </c>
+      <c r="F12" s="3">
+        <v>1250</v>
+      </c>
+      <c r="G12" s="3">
+        <v>500</v>
+      </c>
+      <c r="H12" s="3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16">
+      <c r="A13" s="3">
+        <v>7654</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D13" s="3">
+        <v>7698</v>
+      </c>
+      <c r="E13" s="4">
+        <v>29857</v>
+      </c>
+      <c r="F13" s="3">
+        <v>1250</v>
+      </c>
+      <c r="G13" s="3">
+        <v>1400</v>
+      </c>
+      <c r="H13" s="3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16">
+      <c r="A14" s="3">
+        <v>7698</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D14" s="3">
         <v>7839</v>
       </c>
-      <c r="B3" t="s">
-        <v>21</v>
-      </c>
-      <c r="C3" t="s">
-        <v>22</v>
-      </c>
-      <c r="D3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E3" s="2">
-        <v>29907</v>
-      </c>
-      <c r="F3" s="1">
-        <v>5000</v>
-      </c>
-      <c r="G3" t="s">
-        <v>10</v>
-      </c>
-      <c r="H3" s="1">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" outlineLevel="2">
-      <c r="A4" s="1">
-        <v>7934</v>
-      </c>
-      <c r="B4" t="s">
-        <v>27</v>
-      </c>
-      <c r="C4" t="s">
+      <c r="E14" s="4">
+        <v>29707</v>
+      </c>
+      <c r="F14" s="3">
+        <v>2850</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="H14" s="3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16">
+      <c r="A15" s="3">
+        <v>7844</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D15" s="3">
+        <v>7698</v>
+      </c>
+      <c r="E15" s="4">
+        <v>29837</v>
+      </c>
+      <c r="F15" s="3">
+        <v>1500</v>
+      </c>
+      <c r="G15" s="3">
+        <v>0</v>
+      </c>
+      <c r="H15" s="3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" s="1" customFormat="1">
+      <c r="A16" s="5">
+        <v>7900</v>
+      </c>
+      <c r="B16" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="D4" s="1">
-        <v>7782</v>
-      </c>
-      <c r="E4" s="2">
-        <v>29974</v>
-      </c>
-      <c r="F4" s="1">
-        <v>1300</v>
-      </c>
-      <c r="G4" t="s">
-        <v>10</v>
-      </c>
-      <c r="H4" s="1">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" outlineLevel="1">
-      <c r="A5" s="1"/>
-      <c r="D5" s="1"/>
-      <c r="E5" s="3"/>
-      <c r="F5" s="1">
-        <f>SUBTOTAL(9,F2:F4)</f>
-        <v>8750</v>
-      </c>
-      <c r="H5" s="4" t="s">
+      <c r="D16" s="5">
+        <v>7698</v>
+      </c>
+      <c r="E16" s="7">
+        <v>29923</v>
+      </c>
+      <c r="F16" s="5">
+        <v>950</v>
+      </c>
+      <c r="G16" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="H16" s="5">
         <v>30</v>
       </c>
     </row>
-    <row r="6" spans="1:8" outlineLevel="2">
-      <c r="A6" s="1">
-        <v>7369</v>
-      </c>
-      <c r="B6" t="s">
-        <v>8</v>
-      </c>
-      <c r="C6" t="s">
+    <row r="17" spans="1:8">
+      <c r="A17" s="5">
+        <v>8000</v>
+      </c>
+      <c r="B17" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="C17" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="D6" s="1">
-        <v>7902</v>
-      </c>
-      <c r="E6" s="2">
-        <v>29572</v>
-      </c>
-      <c r="F6" s="1">
-        <v>800</v>
-      </c>
-      <c r="G6" t="s">
-        <v>10</v>
-      </c>
-      <c r="H6" s="1">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" outlineLevel="2">
-      <c r="A7" s="1">
-        <v>7566</v>
-      </c>
-      <c r="B7" t="s">
-        <v>14</v>
-      </c>
-      <c r="C7" t="s">
-        <v>15</v>
-      </c>
-      <c r="D7" s="1">
-        <v>7839</v>
-      </c>
-      <c r="E7" s="2">
-        <v>29678</v>
-      </c>
-      <c r="F7" s="1">
-        <v>2975</v>
-      </c>
-      <c r="G7" t="s">
-        <v>10</v>
-      </c>
-      <c r="H7" s="1">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" outlineLevel="2">
-      <c r="A8" s="1">
-        <v>7788</v>
-      </c>
-      <c r="B8" t="s">
-        <v>19</v>
-      </c>
-      <c r="C8" t="s">
-        <v>20</v>
-      </c>
-      <c r="D8" s="1">
-        <v>7566</v>
-      </c>
-      <c r="E8" s="2">
-        <v>30294</v>
-      </c>
-      <c r="F8" s="1">
-        <v>3000</v>
-      </c>
-      <c r="G8" t="s">
-        <v>10</v>
-      </c>
-      <c r="H8" s="1">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" outlineLevel="2">
-      <c r="A9" s="1">
-        <v>7876</v>
-      </c>
-      <c r="B9" t="s">
-        <v>24</v>
-      </c>
-      <c r="C9" t="s">
-        <v>9</v>
-      </c>
-      <c r="D9" s="1">
-        <v>7788</v>
-      </c>
-      <c r="E9" s="2">
-        <v>30328</v>
-      </c>
-      <c r="F9" s="1">
-        <v>1100</v>
-      </c>
-      <c r="G9" t="s">
-        <v>10</v>
-      </c>
-      <c r="H9" s="1">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" outlineLevel="2">
-      <c r="A10" s="1">
-        <v>7902</v>
-      </c>
-      <c r="B10" t="s">
-        <v>26</v>
-      </c>
-      <c r="C10" t="s">
-        <v>20</v>
-      </c>
-      <c r="D10" s="1">
-        <v>7566</v>
-      </c>
-      <c r="E10" s="2">
+      <c r="D17" s="5">
+        <v>7698</v>
+      </c>
+      <c r="E17" s="7">
         <v>29923</v>
       </c>
-      <c r="F10" s="1">
-        <v>3000</v>
-      </c>
-      <c r="G10" t="s">
-        <v>10</v>
-      </c>
-      <c r="H10" s="1">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" outlineLevel="1">
-      <c r="A11" s="1"/>
-      <c r="D11" s="1"/>
-      <c r="E11" s="3"/>
-      <c r="F11" s="1">
-        <f>SUBTOTAL(9,F6:F10)</f>
-        <v>10875</v>
-      </c>
-      <c r="H11" s="4" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" outlineLevel="2">
-      <c r="A12" s="1">
-        <v>7499</v>
-      </c>
-      <c r="B12" t="s">
-        <v>11</v>
-      </c>
-      <c r="C12" t="s">
-        <v>12</v>
-      </c>
-      <c r="D12" s="1">
-        <v>7698</v>
-      </c>
-      <c r="E12" s="2">
-        <v>29637</v>
-      </c>
-      <c r="F12" s="1">
-        <v>1600</v>
-      </c>
-      <c r="G12" s="1">
-        <v>300</v>
-      </c>
-      <c r="H12" s="1">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" outlineLevel="2">
-      <c r="A13" s="1">
-        <v>7521</v>
-      </c>
-      <c r="B13" t="s">
-        <v>13</v>
-      </c>
-      <c r="C13" t="s">
-        <v>12</v>
-      </c>
-      <c r="D13" s="1">
-        <v>7698</v>
-      </c>
-      <c r="E13" s="2">
-        <v>29639</v>
-      </c>
-      <c r="F13" s="1">
-        <v>1250</v>
-      </c>
-      <c r="G13" s="1">
-        <v>500</v>
-      </c>
-      <c r="H13" s="1">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" outlineLevel="2">
-      <c r="A14" s="1">
-        <v>7654</v>
-      </c>
-      <c r="B14" t="s">
-        <v>16</v>
-      </c>
-      <c r="C14" t="s">
-        <v>12</v>
-      </c>
-      <c r="D14" s="1">
-        <v>7698</v>
-      </c>
-      <c r="E14" s="2">
-        <v>29857</v>
-      </c>
-      <c r="F14" s="1">
-        <v>1250</v>
-      </c>
-      <c r="G14" s="1">
-        <v>1400</v>
-      </c>
-      <c r="H14" s="1">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" outlineLevel="2">
-      <c r="A15" s="1">
-        <v>7698</v>
-      </c>
-      <c r="B15" t="s">
-        <v>17</v>
-      </c>
-      <c r="C15" t="s">
-        <v>15</v>
-      </c>
-      <c r="D15" s="1">
-        <v>7839</v>
-      </c>
-      <c r="E15" s="2">
-        <v>29707</v>
-      </c>
-      <c r="F15" s="1">
-        <v>2850</v>
-      </c>
-      <c r="G15" t="s">
-        <v>10</v>
-      </c>
-      <c r="H15" s="1">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" outlineLevel="2">
-      <c r="A16" s="1">
-        <v>7844</v>
-      </c>
-      <c r="B16" t="s">
-        <v>23</v>
-      </c>
-      <c r="C16" t="s">
-        <v>12</v>
-      </c>
-      <c r="D16" s="1">
-        <v>7698</v>
-      </c>
-      <c r="E16" s="2">
-        <v>29837</v>
-      </c>
-      <c r="F16" s="1">
-        <v>1500</v>
-      </c>
-      <c r="G16" s="1">
-        <v>0</v>
-      </c>
-      <c r="H16" s="1">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" outlineLevel="2">
-      <c r="A17" s="1">
-        <v>7900</v>
-      </c>
-      <c r="B17" t="s">
-        <v>25</v>
-      </c>
-      <c r="C17" t="s">
-        <v>9</v>
-      </c>
-      <c r="D17" s="1">
-        <v>7698</v>
-      </c>
-      <c r="E17" s="2">
-        <v>29923</v>
-      </c>
-      <c r="F17" s="1">
+      <c r="F17" s="5">
         <v>950</v>
       </c>
-      <c r="G17" t="s">
-        <v>10</v>
-      </c>
-      <c r="H17" s="1">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" outlineLevel="1">
-      <c r="A18" s="1"/>
-      <c r="D18" s="1"/>
-      <c r="E18" s="3"/>
-      <c r="F18" s="1">
-        <f>SUBTOTAL(9,F12:F17)</f>
-        <v>9400</v>
-      </c>
-      <c r="H18" s="4" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" outlineLevel="1"/>
-    <row r="20" spans="1:8" outlineLevel="1">
-      <c r="F20">
-        <f>SUBTOTAL(9,F2:F19)</f>
-        <v>29025</v>
-      </c>
-      <c r="H20" s="5" t="s">
-        <v>29</v>
-      </c>
+      <c r="G17" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="H17" s="5"/>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H17">
-    <sortCondition ref="H1:H17"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:H16">
+    <sortCondition ref="H2:H16"/>
   </sortState>
+  <mergeCells count="3">
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="J1:L1"/>
+    <mergeCell ref="N1:P1"/>
+  </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -986,6 +1230,994 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E8E4269C-2580-4FDA-83E6-1F3A825C1A15}">
+  <dimension ref="A1:Q20"/>
+  <sheetViews>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="I19" sqref="I19:P19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5"/>
+  <cols>
+    <col min="3" max="3" width="7.75" customWidth="1"/>
+    <col min="5" max="5" width="16.125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:17">
+      <c r="A1" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="K1" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="L1" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="M1" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="N1" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="O1" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="P1" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q1" s="8" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
+      <c r="A2" s="3">
+        <v>7782</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2" s="3">
+        <v>7839</v>
+      </c>
+      <c r="E2" s="4">
+        <v>29746</v>
+      </c>
+      <c r="F2" s="3">
+        <v>2450</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="H2" s="3">
+        <v>10</v>
+      </c>
+      <c r="J2" s="3">
+        <v>7782</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="M2" s="3">
+        <v>7839</v>
+      </c>
+      <c r="N2" s="4">
+        <v>29746</v>
+      </c>
+      <c r="O2" s="3">
+        <v>2450</v>
+      </c>
+      <c r="P2" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q2" s="3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
+      <c r="A3" s="3">
+        <v>7839</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" s="4">
+        <v>29907</v>
+      </c>
+      <c r="F3" s="3">
+        <v>5000</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="H3" s="3">
+        <v>10</v>
+      </c>
+      <c r="J3" s="3">
+        <v>7839</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="M3" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="N3" s="4">
+        <v>29907</v>
+      </c>
+      <c r="O3" s="3">
+        <v>5000</v>
+      </c>
+      <c r="P3" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q3" s="3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
+      <c r="A4" s="5">
+        <v>7934</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" s="5">
+        <v>7782</v>
+      </c>
+      <c r="E4" s="7">
+        <v>29974</v>
+      </c>
+      <c r="F4" s="5">
+        <v>1300</v>
+      </c>
+      <c r="G4" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="H4" s="5">
+        <v>10</v>
+      </c>
+      <c r="J4" s="5">
+        <v>7934</v>
+      </c>
+      <c r="K4" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="L4" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="M4" s="5">
+        <v>7782</v>
+      </c>
+      <c r="N4" s="7">
+        <v>29974</v>
+      </c>
+      <c r="O4" s="5">
+        <v>1300</v>
+      </c>
+      <c r="P4" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q4" s="5">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
+      <c r="A5" s="5">
+        <v>7369</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5" s="5">
+        <v>7902</v>
+      </c>
+      <c r="E5" s="7">
+        <v>29572</v>
+      </c>
+      <c r="F5" s="5">
+        <v>800</v>
+      </c>
+      <c r="G5" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="H5" s="5">
+        <v>20</v>
+      </c>
+      <c r="J5" s="5">
+        <v>7369</v>
+      </c>
+      <c r="K5" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="L5" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="M5" s="5">
+        <v>7902</v>
+      </c>
+      <c r="N5" s="7">
+        <v>29572</v>
+      </c>
+      <c r="O5" s="5">
+        <v>800</v>
+      </c>
+      <c r="P5" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q5" s="5">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
+      <c r="A6" s="3">
+        <v>7566</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D6" s="3">
+        <v>7839</v>
+      </c>
+      <c r="E6" s="4">
+        <v>29678</v>
+      </c>
+      <c r="F6" s="3">
+        <v>2975</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="H6" s="3">
+        <v>20</v>
+      </c>
+      <c r="J6" s="3">
+        <v>7566</v>
+      </c>
+      <c r="K6" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="L6" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="M6" s="3">
+        <v>7839</v>
+      </c>
+      <c r="N6" s="4">
+        <v>29678</v>
+      </c>
+      <c r="O6" s="3">
+        <v>2975</v>
+      </c>
+      <c r="P6" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q6" s="3">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
+      <c r="A7" s="3">
+        <v>7788</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D7" s="3">
+        <v>7566</v>
+      </c>
+      <c r="E7" s="4">
+        <v>30294</v>
+      </c>
+      <c r="F7" s="3">
+        <v>3000</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="H7" s="3">
+        <v>20</v>
+      </c>
+      <c r="J7" s="3">
+        <v>7788</v>
+      </c>
+      <c r="K7" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="L7" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="M7" s="3">
+        <v>7566</v>
+      </c>
+      <c r="N7" s="4">
+        <v>30294</v>
+      </c>
+      <c r="O7" s="3">
+        <v>3000</v>
+      </c>
+      <c r="P7" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q7" s="3">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
+      <c r="A8" s="5">
+        <v>7876</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D8" s="5">
+        <v>7788</v>
+      </c>
+      <c r="E8" s="7">
+        <v>30328</v>
+      </c>
+      <c r="F8" s="5">
+        <v>1100</v>
+      </c>
+      <c r="G8" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="H8" s="5">
+        <v>20</v>
+      </c>
+      <c r="J8" s="5">
+        <v>7876</v>
+      </c>
+      <c r="K8" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="L8" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="M8" s="5">
+        <v>7788</v>
+      </c>
+      <c r="N8" s="7">
+        <v>30328</v>
+      </c>
+      <c r="O8" s="5">
+        <v>1100</v>
+      </c>
+      <c r="P8" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q8" s="5">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
+      <c r="A9" s="3">
+        <v>7902</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D9" s="3">
+        <v>7566</v>
+      </c>
+      <c r="E9" s="4">
+        <v>29923</v>
+      </c>
+      <c r="F9" s="3">
+        <v>3000</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="H9" s="3">
+        <v>20</v>
+      </c>
+      <c r="J9" s="3">
+        <v>7902</v>
+      </c>
+      <c r="K9" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="L9" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="M9" s="3">
+        <v>7566</v>
+      </c>
+      <c r="N9" s="4">
+        <v>29923</v>
+      </c>
+      <c r="O9" s="3">
+        <v>3000</v>
+      </c>
+      <c r="P9" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q9" s="3">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
+      <c r="A10" s="3">
+        <v>7499</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D10" s="3">
+        <v>7698</v>
+      </c>
+      <c r="E10" s="4">
+        <v>29637</v>
+      </c>
+      <c r="F10" s="3">
+        <v>1600</v>
+      </c>
+      <c r="G10" s="3">
+        <v>300</v>
+      </c>
+      <c r="H10" s="3">
+        <v>30</v>
+      </c>
+      <c r="J10" s="3">
+        <v>7499</v>
+      </c>
+      <c r="K10" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="L10" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="M10" s="3">
+        <v>7698</v>
+      </c>
+      <c r="N10" s="4">
+        <v>29637</v>
+      </c>
+      <c r="O10" s="3">
+        <v>1600</v>
+      </c>
+      <c r="P10" s="3">
+        <v>300</v>
+      </c>
+      <c r="Q10" s="3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
+      <c r="A11" s="3">
+        <v>7521</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D11" s="3">
+        <v>7698</v>
+      </c>
+      <c r="E11" s="4">
+        <v>29639</v>
+      </c>
+      <c r="F11" s="3">
+        <v>1250</v>
+      </c>
+      <c r="G11" s="3">
+        <v>500</v>
+      </c>
+      <c r="H11" s="3">
+        <v>30</v>
+      </c>
+      <c r="J11" s="3">
+        <v>7521</v>
+      </c>
+      <c r="K11" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="L11" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="M11" s="3">
+        <v>7698</v>
+      </c>
+      <c r="N11" s="4">
+        <v>29639</v>
+      </c>
+      <c r="O11" s="3">
+        <v>1250</v>
+      </c>
+      <c r="P11" s="3">
+        <v>500</v>
+      </c>
+      <c r="Q11" s="3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
+      <c r="A12" s="3">
+        <v>7654</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D12" s="3">
+        <v>7698</v>
+      </c>
+      <c r="E12" s="4">
+        <v>29857</v>
+      </c>
+      <c r="F12" s="3">
+        <v>1250</v>
+      </c>
+      <c r="G12" s="3">
+        <v>1400</v>
+      </c>
+      <c r="H12" s="3">
+        <v>30</v>
+      </c>
+      <c r="J12" s="3">
+        <v>7654</v>
+      </c>
+      <c r="K12" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="L12" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="M12" s="3">
+        <v>7698</v>
+      </c>
+      <c r="N12" s="4">
+        <v>29857</v>
+      </c>
+      <c r="O12" s="3">
+        <v>1250</v>
+      </c>
+      <c r="P12" s="3">
+        <v>1400</v>
+      </c>
+      <c r="Q12" s="3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
+      <c r="A13" s="3">
+        <v>7698</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D13" s="3">
+        <v>7839</v>
+      </c>
+      <c r="E13" s="4">
+        <v>29707</v>
+      </c>
+      <c r="F13" s="3">
+        <v>2850</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="H13" s="3">
+        <v>30</v>
+      </c>
+      <c r="J13" s="3">
+        <v>7698</v>
+      </c>
+      <c r="K13" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="L13" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="M13" s="3">
+        <v>7839</v>
+      </c>
+      <c r="N13" s="4">
+        <v>29707</v>
+      </c>
+      <c r="O13" s="3">
+        <v>2850</v>
+      </c>
+      <c r="P13" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q13" s="3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
+      <c r="A14" s="3">
+        <v>7844</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D14" s="3">
+        <v>7698</v>
+      </c>
+      <c r="E14" s="4">
+        <v>29837</v>
+      </c>
+      <c r="F14" s="3">
+        <v>1500</v>
+      </c>
+      <c r="G14" s="3">
+        <v>0</v>
+      </c>
+      <c r="H14" s="3">
+        <v>30</v>
+      </c>
+      <c r="J14" s="3">
+        <v>7844</v>
+      </c>
+      <c r="K14" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="L14" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="M14" s="3">
+        <v>7698</v>
+      </c>
+      <c r="N14" s="4">
+        <v>29837</v>
+      </c>
+      <c r="O14" s="3">
+        <v>1500</v>
+      </c>
+      <c r="P14" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q14" s="3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
+      <c r="A15" s="5">
+        <v>7900</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D15" s="5">
+        <v>7698</v>
+      </c>
+      <c r="E15" s="7">
+        <v>29923</v>
+      </c>
+      <c r="F15" s="5">
+        <v>950</v>
+      </c>
+      <c r="G15" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="H15" s="5">
+        <v>30</v>
+      </c>
+      <c r="J15" s="5">
+        <v>7900</v>
+      </c>
+      <c r="K15" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="L15" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="M15" s="5">
+        <v>7698</v>
+      </c>
+      <c r="N15" s="7">
+        <v>29923</v>
+      </c>
+      <c r="O15" s="5">
+        <v>950</v>
+      </c>
+      <c r="P15" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q15" s="5">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
+      <c r="A16" s="5">
+        <v>8888</v>
+      </c>
+      <c r="B16" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="C16" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D16" s="5">
+        <v>7698</v>
+      </c>
+      <c r="E16" s="7">
+        <v>29923</v>
+      </c>
+      <c r="F16" s="5">
+        <v>950</v>
+      </c>
+      <c r="G16" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="H16" s="5"/>
+      <c r="J16" s="5">
+        <v>8888</v>
+      </c>
+      <c r="K16" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="L16" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="M16" s="5">
+        <v>7698</v>
+      </c>
+      <c r="N16" s="7">
+        <v>29923</v>
+      </c>
+      <c r="O16" s="5">
+        <v>950</v>
+      </c>
+      <c r="P16" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q16" s="5"/>
+    </row>
+    <row r="19" spans="1:16">
+      <c r="A19" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B19" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C19" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="D19" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="E19" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="F19" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="G19" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="H19" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="I19" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="J19" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="K19" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="L19" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="M19" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="N19" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="O19" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="P19" s="8" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16">
+      <c r="A20" s="3">
+        <v>7782</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D20" s="3">
+        <v>7839</v>
+      </c>
+      <c r="E20" s="4">
+        <v>29746</v>
+      </c>
+      <c r="F20" s="3">
+        <v>2450</v>
+      </c>
+      <c r="G20" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="H20" s="3">
+        <v>10</v>
+      </c>
+      <c r="I20" s="3">
+        <v>7839</v>
+      </c>
+      <c r="J20" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="K20" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="L20" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="M20" s="4">
+        <v>29907</v>
+      </c>
+      <c r="N20" s="3">
+        <v>5000</v>
+      </c>
+      <c r="O20" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="P20" s="3">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BDF6CC00-2A9B-41EC-A660-A1710AB27D81}">
+  <dimension ref="A1:C5"/>
+  <sheetViews>
+    <sheetView zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" t="s">
+        <v>32</v>
+      </c>
+      <c r="B4">
+        <v>2</v>
+      </c>
+      <c r="C4" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>3</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A2"/>
   <sheetViews>
@@ -1001,5 +2233,6 @@
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/사원.xlsx
+++ b/사원.xlsx
@@ -8,18 +8,22 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\kdt\sql\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9FA22027-5C90-45B9-8131-EE1B990944CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4947355-6011-4A13-A302-ED1E67BB41EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="24240" windowHeight="13740" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="24240" windowHeight="13740" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="워크시트 익스포트" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="4" r:id="rId2"/>
     <sheet name="Sheet1" sheetId="3" r:id="rId3"/>
     <sheet name="SQL" sheetId="2" r:id="rId4"/>
+    <sheet name="워크시트 익스포트 (2)" sheetId="6" r:id="rId5"/>
+    <sheet name="워크시트 익스포트 (3)" sheetId="7" r:id="rId6"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'워크시트 익스포트'!$C$2:$C$21</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'워크시트 익스포트 (2)'!$C$2:$C$21</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">'워크시트 익스포트 (3)'!$C$2:$C$21</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="441" uniqueCount="53">
   <si>
     <t>EMPNO</t>
   </si>
@@ -309,11 +313,8 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
@@ -323,13 +324,6 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -655,7 +649,7 @@
   </sheetPr>
   <dimension ref="A1:P17"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="M11" sqref="M11"/>
     </sheetView>
   </sheetViews>
@@ -671,548 +665,548 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="20.25">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="B1" s="9"/>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
-      <c r="E1" s="9"/>
-      <c r="F1" s="9"/>
-      <c r="G1" s="9"/>
-      <c r="H1" s="9"/>
-      <c r="J1" s="9" t="s">
+      <c r="B1" s="5"/>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
+      <c r="F1" s="5"/>
+      <c r="G1" s="5"/>
+      <c r="H1" s="5"/>
+      <c r="J1" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="K1" s="9"/>
-      <c r="L1" s="9"/>
-      <c r="N1" s="9" t="s">
+      <c r="K1" s="5"/>
+      <c r="L1" s="5"/>
+      <c r="N1" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="O1" s="9"/>
-      <c r="P1" s="9"/>
+      <c r="O1" s="5"/>
+      <c r="P1" s="5"/>
     </row>
     <row r="2" spans="1:16">
-      <c r="A2" s="8" t="s">
+      <c r="A2" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="8" t="s">
+      <c r="B2" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="8" t="s">
+      <c r="C2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="8" t="s">
+      <c r="D2" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="8" t="s">
+      <c r="E2" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="8" t="s">
+      <c r="F2" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="8" t="s">
+      <c r="G2" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="8" t="s">
+      <c r="H2" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="J2" s="8" t="s">
+      <c r="J2" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="K2" s="8" t="s">
+      <c r="K2" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="L2" s="8" t="s">
+      <c r="L2" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="N2" s="8" t="s">
+      <c r="N2" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="O2" s="8" t="s">
+      <c r="O2" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="P2" s="8" t="s">
+      <c r="P2" s="4" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="3" spans="1:16">
-      <c r="A3" s="3">
+      <c r="A3" s="2">
         <v>7782</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="D3" s="3">
+      <c r="D3" s="2">
         <v>7839</v>
       </c>
-      <c r="E3" s="4">
+      <c r="E3" s="3">
         <v>29746</v>
       </c>
-      <c r="F3" s="3">
+      <c r="F3" s="2">
         <v>2450</v>
       </c>
-      <c r="G3" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="H3" s="3">
-        <v>10</v>
-      </c>
-      <c r="J3" s="2">
-        <v>10</v>
-      </c>
-      <c r="K3" s="2" t="s">
+      <c r="G3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H3" s="2">
+        <v>10</v>
+      </c>
+      <c r="J3" s="1">
+        <v>10</v>
+      </c>
+      <c r="K3" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="L3" s="2" t="s">
+      <c r="L3" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="N3" s="2">
+      <c r="N3" s="1">
         <v>1</v>
       </c>
-      <c r="O3" s="2">
+      <c r="O3" s="1">
         <v>700</v>
       </c>
-      <c r="P3" s="2">
+      <c r="P3" s="1">
         <v>1200</v>
       </c>
     </row>
     <row r="4" spans="1:16">
-      <c r="A4" s="3">
+      <c r="A4" s="2">
         <v>7839</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C4" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D4" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E4" s="4">
+      <c r="D4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4" s="3">
         <v>29907</v>
       </c>
-      <c r="F4" s="3">
+      <c r="F4" s="2">
         <v>5000</v>
       </c>
-      <c r="G4" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="H4" s="3">
-        <v>10</v>
-      </c>
-      <c r="J4" s="2">
-        <v>20</v>
-      </c>
-      <c r="K4" s="2" t="s">
+      <c r="G4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H4" s="2">
+        <v>10</v>
+      </c>
+      <c r="J4" s="1">
+        <v>20</v>
+      </c>
+      <c r="K4" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="L4" s="2" t="s">
+      <c r="L4" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="N4" s="2">
+      <c r="N4" s="1">
         <v>2</v>
       </c>
-      <c r="O4" s="2">
+      <c r="O4" s="1">
         <v>1201</v>
       </c>
-      <c r="P4" s="2">
+      <c r="P4" s="1">
         <v>1400</v>
       </c>
     </row>
-    <row r="5" spans="1:16" s="1" customFormat="1">
-      <c r="A5" s="5">
+    <row r="5" spans="1:16">
+      <c r="A5" s="2">
         <v>7934</v>
       </c>
-      <c r="B5" s="6" t="s">
+      <c r="B5" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="C5" s="6" t="s">
+      <c r="C5" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D5" s="5">
+      <c r="D5" s="2">
         <v>7782</v>
       </c>
-      <c r="E5" s="7">
+      <c r="E5" s="3">
         <v>29974</v>
       </c>
-      <c r="F5" s="5">
+      <c r="F5" s="2">
         <v>1300</v>
       </c>
-      <c r="G5" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="H5" s="5">
-        <v>10</v>
-      </c>
-      <c r="J5" s="2">
-        <v>30</v>
-      </c>
-      <c r="K5" s="2" t="s">
+      <c r="G5" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H5" s="2">
+        <v>10</v>
+      </c>
+      <c r="J5" s="1">
+        <v>30</v>
+      </c>
+      <c r="K5" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="L5" s="2" t="s">
+      <c r="L5" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="N5" s="6">
+      <c r="N5" s="1">
         <v>3</v>
       </c>
-      <c r="O5" s="6">
+      <c r="O5" s="1">
         <v>1401</v>
       </c>
-      <c r="P5" s="6">
+      <c r="P5" s="1">
         <v>2000</v>
       </c>
     </row>
-    <row r="6" spans="1:16" s="1" customFormat="1">
-      <c r="A6" s="5">
+    <row r="6" spans="1:16">
+      <c r="A6" s="2">
         <v>7369</v>
       </c>
-      <c r="B6" s="6" t="s">
+      <c r="B6" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C6" s="6" t="s">
+      <c r="C6" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D6" s="5">
+      <c r="D6" s="2">
         <v>7902</v>
       </c>
-      <c r="E6" s="7">
+      <c r="E6" s="3">
         <v>29572</v>
       </c>
-      <c r="F6" s="5">
+      <c r="F6" s="2">
         <v>800</v>
       </c>
-      <c r="G6" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="H6" s="5">
-        <v>20</v>
-      </c>
-      <c r="J6" s="2">
+      <c r="G6" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H6" s="2">
+        <v>20</v>
+      </c>
+      <c r="J6" s="1">
         <v>40</v>
       </c>
-      <c r="K6" s="2" t="s">
+      <c r="K6" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="L6" s="2" t="s">
+      <c r="L6" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="N6" s="6">
+      <c r="N6" s="1">
         <v>4</v>
       </c>
-      <c r="O6" s="6">
+      <c r="O6" s="1">
         <v>2001</v>
       </c>
-      <c r="P6" s="6">
+      <c r="P6" s="1">
         <v>3000</v>
       </c>
     </row>
     <row r="7" spans="1:16">
-      <c r="A7" s="3">
+      <c r="A7" s="2">
         <v>7566</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="B7" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="C7" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D7" s="3">
+      <c r="D7" s="2">
         <v>7839</v>
       </c>
-      <c r="E7" s="4">
+      <c r="E7" s="3">
         <v>29678</v>
       </c>
-      <c r="F7" s="3">
+      <c r="F7" s="2">
         <v>2975</v>
       </c>
-      <c r="G7" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="H7" s="3">
-        <v>20</v>
-      </c>
-      <c r="J7" s="6">
+      <c r="G7" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H7" s="2">
+        <v>20</v>
+      </c>
+      <c r="J7" s="1">
         <v>50</v>
       </c>
-      <c r="K7" s="6" t="s">
+      <c r="K7" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="L7" s="6" t="s">
+      <c r="L7" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="N7" s="2">
+      <c r="N7" s="1">
         <v>5</v>
       </c>
-      <c r="O7" s="2">
+      <c r="O7" s="1">
         <v>3001</v>
       </c>
-      <c r="P7" s="2">
+      <c r="P7" s="1">
         <v>9999</v>
       </c>
     </row>
     <row r="8" spans="1:16">
-      <c r="A8" s="3">
+      <c r="A8" s="2">
         <v>7788</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="B8" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C8" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D8" s="3">
+      <c r="C8" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D8" s="2">
         <v>7566</v>
       </c>
-      <c r="E8" s="4">
+      <c r="E8" s="3">
         <v>30294</v>
       </c>
-      <c r="F8" s="3">
+      <c r="F8" s="2">
         <v>3000</v>
       </c>
-      <c r="G8" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="H8" s="3">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="9" spans="1:16" s="1" customFormat="1">
-      <c r="A9" s="5">
+      <c r="G8" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H8" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16">
+      <c r="A9" s="2">
         <v>7876</v>
       </c>
-      <c r="B9" s="6" t="s">
+      <c r="B9" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C9" s="6" t="s">
+      <c r="C9" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D9" s="5">
+      <c r="D9" s="2">
         <v>7788</v>
       </c>
-      <c r="E9" s="7">
+      <c r="E9" s="3">
         <v>30328</v>
       </c>
-      <c r="F9" s="5">
+      <c r="F9" s="2">
         <v>1100</v>
       </c>
-      <c r="G9" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="H9" s="5">
+      <c r="G9" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H9" s="2">
         <v>20</v>
       </c>
     </row>
     <row r="10" spans="1:16">
-      <c r="A10" s="3">
+      <c r="A10" s="2">
         <v>7902</v>
       </c>
-      <c r="B10" s="2" t="s">
+      <c r="B10" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="C10" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D10" s="3">
+      <c r="C10" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D10" s="2">
         <v>7566</v>
       </c>
-      <c r="E10" s="4">
+      <c r="E10" s="3">
         <v>29923</v>
       </c>
-      <c r="F10" s="3">
+      <c r="F10" s="2">
         <v>3000</v>
       </c>
-      <c r="G10" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="H10" s="3">
+      <c r="G10" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H10" s="2">
         <v>20</v>
       </c>
     </row>
     <row r="11" spans="1:16">
-      <c r="A11" s="3">
+      <c r="A11" s="2">
         <v>7499</v>
       </c>
-      <c r="B11" s="2" t="s">
+      <c r="B11" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C11" s="2" t="s">
+      <c r="C11" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D11" s="3">
+      <c r="D11" s="2">
         <v>7698</v>
       </c>
-      <c r="E11" s="4">
+      <c r="E11" s="3">
         <v>29637</v>
       </c>
-      <c r="F11" s="3">
+      <c r="F11" s="2">
         <v>1600</v>
       </c>
-      <c r="G11" s="3">
+      <c r="G11" s="2">
         <v>300</v>
       </c>
-      <c r="H11" s="3">
+      <c r="H11" s="2">
         <v>30</v>
       </c>
     </row>
     <row r="12" spans="1:16">
-      <c r="A12" s="3">
+      <c r="A12" s="2">
         <v>7521</v>
       </c>
-      <c r="B12" s="2" t="s">
+      <c r="B12" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C12" s="2" t="s">
+      <c r="C12" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D12" s="3">
+      <c r="D12" s="2">
         <v>7698</v>
       </c>
-      <c r="E12" s="4">
+      <c r="E12" s="3">
         <v>29639</v>
       </c>
-      <c r="F12" s="3">
+      <c r="F12" s="2">
         <v>1250</v>
       </c>
-      <c r="G12" s="3">
+      <c r="G12" s="2">
         <v>500</v>
       </c>
-      <c r="H12" s="3">
+      <c r="H12" s="2">
         <v>30</v>
       </c>
     </row>
     <row r="13" spans="1:16">
-      <c r="A13" s="3">
+      <c r="A13" s="2">
         <v>7654</v>
       </c>
-      <c r="B13" s="2" t="s">
+      <c r="B13" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C13" s="2" t="s">
+      <c r="C13" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D13" s="3">
+      <c r="D13" s="2">
         <v>7698</v>
       </c>
-      <c r="E13" s="4">
+      <c r="E13" s="3">
         <v>29857</v>
       </c>
-      <c r="F13" s="3">
+      <c r="F13" s="2">
         <v>1250</v>
       </c>
-      <c r="G13" s="3">
+      <c r="G13" s="2">
         <v>1400</v>
       </c>
-      <c r="H13" s="3">
+      <c r="H13" s="2">
         <v>30</v>
       </c>
     </row>
     <row r="14" spans="1:16">
-      <c r="A14" s="3">
+      <c r="A14" s="2">
         <v>7698</v>
       </c>
-      <c r="B14" s="2" t="s">
+      <c r="B14" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C14" s="2" t="s">
+      <c r="C14" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D14" s="3">
+      <c r="D14" s="2">
         <v>7839</v>
       </c>
-      <c r="E14" s="4">
+      <c r="E14" s="3">
         <v>29707</v>
       </c>
-      <c r="F14" s="3">
+      <c r="F14" s="2">
         <v>2850</v>
       </c>
-      <c r="G14" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="H14" s="3">
+      <c r="G14" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H14" s="2">
         <v>30</v>
       </c>
     </row>
     <row r="15" spans="1:16">
-      <c r="A15" s="3">
+      <c r="A15" s="2">
         <v>7844</v>
       </c>
-      <c r="B15" s="2" t="s">
+      <c r="B15" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C15" s="2" t="s">
+      <c r="C15" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D15" s="3">
+      <c r="D15" s="2">
         <v>7698</v>
       </c>
-      <c r="E15" s="4">
+      <c r="E15" s="3">
         <v>29837</v>
       </c>
-      <c r="F15" s="3">
+      <c r="F15" s="2">
         <v>1500</v>
       </c>
-      <c r="G15" s="3">
+      <c r="G15" s="2">
         <v>0</v>
       </c>
-      <c r="H15" s="3">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="16" spans="1:16" s="1" customFormat="1">
-      <c r="A16" s="5">
+      <c r="H15" s="2">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16">
+      <c r="A16" s="2">
         <v>7900</v>
       </c>
-      <c r="B16" s="6" t="s">
+      <c r="B16" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="C16" s="6" t="s">
+      <c r="C16" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D16" s="5">
+      <c r="D16" s="2">
         <v>7698</v>
       </c>
-      <c r="E16" s="7">
+      <c r="E16" s="3">
         <v>29923</v>
       </c>
-      <c r="F16" s="5">
+      <c r="F16" s="2">
         <v>950</v>
       </c>
-      <c r="G16" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="H16" s="5">
+      <c r="G16" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H16" s="2">
         <v>30</v>
       </c>
     </row>
     <row r="17" spans="1:8">
-      <c r="A17" s="5">
+      <c r="A17" s="2">
         <v>8000</v>
       </c>
-      <c r="B17" s="6" t="s">
+      <c r="B17" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="C17" s="6" t="s">
+      <c r="C17" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D17" s="5">
+      <c r="D17" s="2">
         <v>7698</v>
       </c>
-      <c r="E17" s="7">
+      <c r="E17" s="3">
         <v>29923</v>
       </c>
-      <c r="F17" s="5">
+      <c r="F17" s="2">
         <v>950</v>
       </c>
-      <c r="G17" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="H17" s="5"/>
+      <c r="G17" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H17" s="2"/>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:H16">
@@ -1234,7 +1228,7 @@
   <dimension ref="A1:Q20"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="I19" sqref="I19:P19"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -1244,898 +1238,898 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="8" t="s">
+      <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="8" t="s">
+      <c r="D1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="8" t="s">
+      <c r="E1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="8" t="s">
+      <c r="F1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="8" t="s">
+      <c r="G1" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="8" t="s">
+      <c r="H1" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="8" t="s">
+      <c r="J1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="K1" s="8" t="s">
+      <c r="K1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="L1" s="8" t="s">
+      <c r="L1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="M1" s="8" t="s">
+      <c r="M1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="N1" s="8" t="s">
+      <c r="N1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="O1" s="8" t="s">
+      <c r="O1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="P1" s="8" t="s">
+      <c r="P1" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="Q1" s="8" t="s">
+      <c r="Q1" s="4" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:17">
-      <c r="A2" s="3">
+      <c r="A2" s="2">
         <v>7782</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D2" s="3">
+      <c r="D2" s="2">
         <v>7839</v>
       </c>
-      <c r="E2" s="4">
+      <c r="E2" s="3">
         <v>29746</v>
       </c>
-      <c r="F2" s="3">
+      <c r="F2" s="2">
         <v>2450</v>
       </c>
-      <c r="G2" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="H2" s="3">
-        <v>10</v>
-      </c>
-      <c r="J2" s="3">
+      <c r="G2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H2" s="2">
+        <v>10</v>
+      </c>
+      <c r="J2" s="2">
         <v>7782</v>
       </c>
-      <c r="K2" s="2" t="s">
+      <c r="K2" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="L2" s="2" t="s">
+      <c r="L2" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="M2" s="3">
+      <c r="M2" s="2">
         <v>7839</v>
       </c>
-      <c r="N2" s="4">
+      <c r="N2" s="3">
         <v>29746</v>
       </c>
-      <c r="O2" s="3">
+      <c r="O2" s="2">
         <v>2450</v>
       </c>
-      <c r="P2" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="Q2" s="3">
+      <c r="P2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q2" s="2">
         <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:17">
-      <c r="A3" s="3">
+      <c r="A3" s="2">
         <v>7839</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D3" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E3" s="4">
+      <c r="D3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" s="3">
         <v>29907</v>
       </c>
-      <c r="F3" s="3">
+      <c r="F3" s="2">
         <v>5000</v>
       </c>
-      <c r="G3" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="H3" s="3">
-        <v>10</v>
-      </c>
-      <c r="J3" s="3">
+      <c r="G3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H3" s="2">
+        <v>10</v>
+      </c>
+      <c r="J3" s="2">
         <v>7839</v>
       </c>
-      <c r="K3" s="2" t="s">
+      <c r="K3" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="L3" s="2" t="s">
+      <c r="L3" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="M3" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="N3" s="4">
+      <c r="M3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="N3" s="3">
         <v>29907</v>
       </c>
-      <c r="O3" s="3">
+      <c r="O3" s="2">
         <v>5000</v>
       </c>
-      <c r="P3" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="Q3" s="3">
+      <c r="P3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q3" s="2">
         <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:17">
-      <c r="A4" s="5">
+      <c r="A4" s="2">
         <v>7934</v>
       </c>
-      <c r="B4" s="6" t="s">
+      <c r="B4" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="C4" s="6" t="s">
+      <c r="C4" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D4" s="5">
+      <c r="D4" s="2">
         <v>7782</v>
       </c>
-      <c r="E4" s="7">
+      <c r="E4" s="3">
         <v>29974</v>
       </c>
-      <c r="F4" s="5">
+      <c r="F4" s="2">
         <v>1300</v>
       </c>
-      <c r="G4" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="H4" s="5">
-        <v>10</v>
-      </c>
-      <c r="J4" s="5">
+      <c r="G4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H4" s="2">
+        <v>10</v>
+      </c>
+      <c r="J4" s="2">
         <v>7934</v>
       </c>
-      <c r="K4" s="6" t="s">
+      <c r="K4" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="L4" s="6" t="s">
+      <c r="L4" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="M4" s="5">
+      <c r="M4" s="2">
         <v>7782</v>
       </c>
-      <c r="N4" s="7">
+      <c r="N4" s="3">
         <v>29974</v>
       </c>
-      <c r="O4" s="5">
+      <c r="O4" s="2">
         <v>1300</v>
       </c>
-      <c r="P4" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="Q4" s="5">
+      <c r="P4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q4" s="2">
         <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:17">
-      <c r="A5" s="5">
+      <c r="A5" s="2">
         <v>7369</v>
       </c>
-      <c r="B5" s="6" t="s">
+      <c r="B5" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="6" t="s">
+      <c r="C5" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D5" s="5">
+      <c r="D5" s="2">
         <v>7902</v>
       </c>
-      <c r="E5" s="7">
+      <c r="E5" s="3">
         <v>29572</v>
       </c>
-      <c r="F5" s="5">
+      <c r="F5" s="2">
         <v>800</v>
       </c>
-      <c r="G5" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="H5" s="5">
-        <v>20</v>
-      </c>
-      <c r="J5" s="5">
+      <c r="G5" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H5" s="2">
+        <v>20</v>
+      </c>
+      <c r="J5" s="2">
         <v>7369</v>
       </c>
-      <c r="K5" s="6" t="s">
+      <c r="K5" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="L5" s="6" t="s">
+      <c r="L5" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="M5" s="5">
+      <c r="M5" s="2">
         <v>7902</v>
       </c>
-      <c r="N5" s="7">
+      <c r="N5" s="3">
         <v>29572</v>
       </c>
-      <c r="O5" s="5">
+      <c r="O5" s="2">
         <v>800</v>
       </c>
-      <c r="P5" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="Q5" s="5">
+      <c r="P5" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q5" s="2">
         <v>20</v>
       </c>
     </row>
     <row r="6" spans="1:17">
-      <c r="A6" s="3">
+      <c r="A6" s="2">
         <v>7566</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B6" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="C6" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D6" s="3">
+      <c r="D6" s="2">
         <v>7839</v>
       </c>
-      <c r="E6" s="4">
+      <c r="E6" s="3">
         <v>29678</v>
       </c>
-      <c r="F6" s="3">
+      <c r="F6" s="2">
         <v>2975</v>
       </c>
-      <c r="G6" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="H6" s="3">
-        <v>20</v>
-      </c>
-      <c r="J6" s="3">
+      <c r="G6" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H6" s="2">
+        <v>20</v>
+      </c>
+      <c r="J6" s="2">
         <v>7566</v>
       </c>
-      <c r="K6" s="2" t="s">
+      <c r="K6" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="L6" s="2" t="s">
+      <c r="L6" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="M6" s="3">
+      <c r="M6" s="2">
         <v>7839</v>
       </c>
-      <c r="N6" s="4">
+      <c r="N6" s="3">
         <v>29678</v>
       </c>
-      <c r="O6" s="3">
+      <c r="O6" s="2">
         <v>2975</v>
       </c>
-      <c r="P6" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="Q6" s="3">
+      <c r="P6" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q6" s="2">
         <v>20</v>
       </c>
     </row>
     <row r="7" spans="1:17">
-      <c r="A7" s="3">
+      <c r="A7" s="2">
         <v>7788</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="B7" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C7" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D7" s="3">
+      <c r="C7" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D7" s="2">
         <v>7566</v>
       </c>
-      <c r="E7" s="4">
+      <c r="E7" s="3">
         <v>30294</v>
       </c>
-      <c r="F7" s="3">
+      <c r="F7" s="2">
         <v>3000</v>
       </c>
-      <c r="G7" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="H7" s="3">
-        <v>20</v>
-      </c>
-      <c r="J7" s="3">
+      <c r="G7" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H7" s="2">
+        <v>20</v>
+      </c>
+      <c r="J7" s="2">
         <v>7788</v>
       </c>
-      <c r="K7" s="2" t="s">
+      <c r="K7" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="L7" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="M7" s="3">
+      <c r="L7" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="M7" s="2">
         <v>7566</v>
       </c>
-      <c r="N7" s="4">
+      <c r="N7" s="3">
         <v>30294</v>
       </c>
-      <c r="O7" s="3">
+      <c r="O7" s="2">
         <v>3000</v>
       </c>
-      <c r="P7" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="Q7" s="3">
+      <c r="P7" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q7" s="2">
         <v>20</v>
       </c>
     </row>
     <row r="8" spans="1:17">
-      <c r="A8" s="5">
+      <c r="A8" s="2">
         <v>7876</v>
       </c>
-      <c r="B8" s="6" t="s">
+      <c r="B8" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C8" s="6" t="s">
+      <c r="C8" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D8" s="5">
+      <c r="D8" s="2">
         <v>7788</v>
       </c>
-      <c r="E8" s="7">
+      <c r="E8" s="3">
         <v>30328</v>
       </c>
-      <c r="F8" s="5">
+      <c r="F8" s="2">
         <v>1100</v>
       </c>
-      <c r="G8" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="H8" s="5">
-        <v>20</v>
-      </c>
-      <c r="J8" s="5">
+      <c r="G8" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H8" s="2">
+        <v>20</v>
+      </c>
+      <c r="J8" s="2">
         <v>7876</v>
       </c>
-      <c r="K8" s="6" t="s">
+      <c r="K8" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="L8" s="6" t="s">
+      <c r="L8" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="M8" s="5">
+      <c r="M8" s="2">
         <v>7788</v>
       </c>
-      <c r="N8" s="7">
+      <c r="N8" s="3">
         <v>30328</v>
       </c>
-      <c r="O8" s="5">
+      <c r="O8" s="2">
         <v>1100</v>
       </c>
-      <c r="P8" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="Q8" s="5">
+      <c r="P8" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q8" s="2">
         <v>20</v>
       </c>
     </row>
     <row r="9" spans="1:17">
-      <c r="A9" s="3">
+      <c r="A9" s="2">
         <v>7902</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="B9" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="C9" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D9" s="3">
+      <c r="C9" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D9" s="2">
         <v>7566</v>
       </c>
-      <c r="E9" s="4">
+      <c r="E9" s="3">
         <v>29923</v>
       </c>
-      <c r="F9" s="3">
+      <c r="F9" s="2">
         <v>3000</v>
       </c>
-      <c r="G9" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="H9" s="3">
-        <v>20</v>
-      </c>
-      <c r="J9" s="3">
+      <c r="G9" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H9" s="2">
+        <v>20</v>
+      </c>
+      <c r="J9" s="2">
         <v>7902</v>
       </c>
-      <c r="K9" s="2" t="s">
+      <c r="K9" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="L9" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="M9" s="3">
+      <c r="L9" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="M9" s="2">
         <v>7566</v>
       </c>
-      <c r="N9" s="4">
+      <c r="N9" s="3">
         <v>29923</v>
       </c>
-      <c r="O9" s="3">
+      <c r="O9" s="2">
         <v>3000</v>
       </c>
-      <c r="P9" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="Q9" s="3">
+      <c r="P9" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q9" s="2">
         <v>20</v>
       </c>
     </row>
     <row r="10" spans="1:17">
-      <c r="A10" s="3">
+      <c r="A10" s="2">
         <v>7499</v>
       </c>
-      <c r="B10" s="2" t="s">
+      <c r="B10" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C10" s="2" t="s">
+      <c r="C10" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D10" s="3">
+      <c r="D10" s="2">
         <v>7698</v>
       </c>
-      <c r="E10" s="4">
+      <c r="E10" s="3">
         <v>29637</v>
       </c>
-      <c r="F10" s="3">
+      <c r="F10" s="2">
         <v>1600</v>
       </c>
-      <c r="G10" s="3">
+      <c r="G10" s="2">
         <v>300</v>
       </c>
-      <c r="H10" s="3">
-        <v>30</v>
-      </c>
-      <c r="J10" s="3">
+      <c r="H10" s="2">
+        <v>30</v>
+      </c>
+      <c r="J10" s="2">
         <v>7499</v>
       </c>
-      <c r="K10" s="2" t="s">
+      <c r="K10" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="L10" s="2" t="s">
+      <c r="L10" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="M10" s="3">
+      <c r="M10" s="2">
         <v>7698</v>
       </c>
-      <c r="N10" s="4">
+      <c r="N10" s="3">
         <v>29637</v>
       </c>
-      <c r="O10" s="3">
+      <c r="O10" s="2">
         <v>1600</v>
       </c>
-      <c r="P10" s="3">
+      <c r="P10" s="2">
         <v>300</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="Q10" s="2">
         <v>30</v>
       </c>
     </row>
     <row r="11" spans="1:17">
-      <c r="A11" s="3">
+      <c r="A11" s="2">
         <v>7521</v>
       </c>
-      <c r="B11" s="2" t="s">
+      <c r="B11" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C11" s="2" t="s">
+      <c r="C11" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D11" s="3">
+      <c r="D11" s="2">
         <v>7698</v>
       </c>
-      <c r="E11" s="4">
+      <c r="E11" s="3">
         <v>29639</v>
       </c>
-      <c r="F11" s="3">
+      <c r="F11" s="2">
         <v>1250</v>
       </c>
-      <c r="G11" s="3">
+      <c r="G11" s="2">
         <v>500</v>
       </c>
-      <c r="H11" s="3">
-        <v>30</v>
-      </c>
-      <c r="J11" s="3">
+      <c r="H11" s="2">
+        <v>30</v>
+      </c>
+      <c r="J11" s="2">
         <v>7521</v>
       </c>
-      <c r="K11" s="2" t="s">
+      <c r="K11" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="L11" s="2" t="s">
+      <c r="L11" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="M11" s="3">
+      <c r="M11" s="2">
         <v>7698</v>
       </c>
-      <c r="N11" s="4">
+      <c r="N11" s="3">
         <v>29639</v>
       </c>
-      <c r="O11" s="3">
+      <c r="O11" s="2">
         <v>1250</v>
       </c>
-      <c r="P11" s="3">
+      <c r="P11" s="2">
         <v>500</v>
       </c>
-      <c r="Q11" s="3">
+      <c r="Q11" s="2">
         <v>30</v>
       </c>
     </row>
     <row r="12" spans="1:17">
-      <c r="A12" s="3">
+      <c r="A12" s="2">
         <v>7654</v>
       </c>
-      <c r="B12" s="2" t="s">
+      <c r="B12" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C12" s="2" t="s">
+      <c r="C12" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D12" s="3">
+      <c r="D12" s="2">
         <v>7698</v>
       </c>
-      <c r="E12" s="4">
+      <c r="E12" s="3">
         <v>29857</v>
       </c>
-      <c r="F12" s="3">
+      <c r="F12" s="2">
         <v>1250</v>
       </c>
-      <c r="G12" s="3">
+      <c r="G12" s="2">
         <v>1400</v>
       </c>
-      <c r="H12" s="3">
-        <v>30</v>
-      </c>
-      <c r="J12" s="3">
+      <c r="H12" s="2">
+        <v>30</v>
+      </c>
+      <c r="J12" s="2">
         <v>7654</v>
       </c>
-      <c r="K12" s="2" t="s">
+      <c r="K12" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="L12" s="2" t="s">
+      <c r="L12" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="M12" s="3">
+      <c r="M12" s="2">
         <v>7698</v>
       </c>
-      <c r="N12" s="4">
+      <c r="N12" s="3">
         <v>29857</v>
       </c>
-      <c r="O12" s="3">
+      <c r="O12" s="2">
         <v>1250</v>
       </c>
-      <c r="P12" s="3">
+      <c r="P12" s="2">
         <v>1400</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="Q12" s="2">
         <v>30</v>
       </c>
     </row>
     <row r="13" spans="1:17">
-      <c r="A13" s="3">
+      <c r="A13" s="2">
         <v>7698</v>
       </c>
-      <c r="B13" s="2" t="s">
+      <c r="B13" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C13" s="2" t="s">
+      <c r="C13" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D13" s="3">
+      <c r="D13" s="2">
         <v>7839</v>
       </c>
-      <c r="E13" s="4">
+      <c r="E13" s="3">
         <v>29707</v>
       </c>
-      <c r="F13" s="3">
+      <c r="F13" s="2">
         <v>2850</v>
       </c>
-      <c r="G13" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="H13" s="3">
-        <v>30</v>
-      </c>
-      <c r="J13" s="3">
+      <c r="G13" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H13" s="2">
+        <v>30</v>
+      </c>
+      <c r="J13" s="2">
         <v>7698</v>
       </c>
-      <c r="K13" s="2" t="s">
+      <c r="K13" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="L13" s="2" t="s">
+      <c r="L13" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="M13" s="3">
+      <c r="M13" s="2">
         <v>7839</v>
       </c>
-      <c r="N13" s="4">
+      <c r="N13" s="3">
         <v>29707</v>
       </c>
-      <c r="O13" s="3">
+      <c r="O13" s="2">
         <v>2850</v>
       </c>
-      <c r="P13" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="Q13" s="3">
+      <c r="P13" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q13" s="2">
         <v>30</v>
       </c>
     </row>
     <row r="14" spans="1:17">
-      <c r="A14" s="3">
+      <c r="A14" s="2">
         <v>7844</v>
       </c>
-      <c r="B14" s="2" t="s">
+      <c r="B14" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C14" s="2" t="s">
+      <c r="C14" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D14" s="3">
+      <c r="D14" s="2">
         <v>7698</v>
       </c>
-      <c r="E14" s="4">
+      <c r="E14" s="3">
         <v>29837</v>
       </c>
-      <c r="F14" s="3">
+      <c r="F14" s="2">
         <v>1500</v>
       </c>
-      <c r="G14" s="3">
+      <c r="G14" s="2">
         <v>0</v>
       </c>
-      <c r="H14" s="3">
-        <v>30</v>
-      </c>
-      <c r="J14" s="3">
+      <c r="H14" s="2">
+        <v>30</v>
+      </c>
+      <c r="J14" s="2">
         <v>7844</v>
       </c>
-      <c r="K14" s="2" t="s">
+      <c r="K14" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="L14" s="2" t="s">
+      <c r="L14" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="M14" s="3">
+      <c r="M14" s="2">
         <v>7698</v>
       </c>
-      <c r="N14" s="4">
+      <c r="N14" s="3">
         <v>29837</v>
       </c>
-      <c r="O14" s="3">
+      <c r="O14" s="2">
         <v>1500</v>
       </c>
-      <c r="P14" s="3">
+      <c r="P14" s="2">
         <v>0</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="Q14" s="2">
         <v>30</v>
       </c>
     </row>
     <row r="15" spans="1:17">
-      <c r="A15" s="5">
+      <c r="A15" s="2">
         <v>7900</v>
       </c>
-      <c r="B15" s="6" t="s">
+      <c r="B15" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="C15" s="6" t="s">
+      <c r="C15" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D15" s="5">
+      <c r="D15" s="2">
         <v>7698</v>
       </c>
-      <c r="E15" s="7">
+      <c r="E15" s="3">
         <v>29923</v>
       </c>
-      <c r="F15" s="5">
+      <c r="F15" s="2">
         <v>950</v>
       </c>
-      <c r="G15" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="H15" s="5">
-        <v>30</v>
-      </c>
-      <c r="J15" s="5">
+      <c r="G15" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H15" s="2">
+        <v>30</v>
+      </c>
+      <c r="J15" s="2">
         <v>7900</v>
       </c>
-      <c r="K15" s="6" t="s">
+      <c r="K15" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="L15" s="6" t="s">
+      <c r="L15" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="M15" s="5">
+      <c r="M15" s="2">
         <v>7698</v>
       </c>
-      <c r="N15" s="7">
+      <c r="N15" s="3">
         <v>29923</v>
       </c>
-      <c r="O15" s="5">
+      <c r="O15" s="2">
         <v>950</v>
       </c>
-      <c r="P15" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="Q15" s="5">
+      <c r="P15" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q15" s="2">
         <v>30</v>
       </c>
     </row>
     <row r="16" spans="1:17">
-      <c r="A16" s="5">
+      <c r="A16" s="2">
         <v>8888</v>
       </c>
-      <c r="B16" s="6" t="s">
+      <c r="B16" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="C16" s="6" t="s">
+      <c r="C16" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D16" s="5">
+      <c r="D16" s="2">
         <v>7698</v>
       </c>
-      <c r="E16" s="7">
+      <c r="E16" s="3">
         <v>29923</v>
       </c>
-      <c r="F16" s="5">
+      <c r="F16" s="2">
         <v>950</v>
       </c>
-      <c r="G16" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="H16" s="5"/>
-      <c r="J16" s="5">
+      <c r="G16" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H16" s="2"/>
+      <c r="J16" s="2">
         <v>8888</v>
       </c>
-      <c r="K16" s="6" t="s">
+      <c r="K16" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="L16" s="6" t="s">
+      <c r="L16" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="M16" s="5">
+      <c r="M16" s="2">
         <v>7698</v>
       </c>
-      <c r="N16" s="7">
+      <c r="N16" s="3">
         <v>29923</v>
       </c>
-      <c r="O16" s="5">
+      <c r="O16" s="2">
         <v>950</v>
       </c>
-      <c r="P16" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="Q16" s="5"/>
+      <c r="P16" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q16" s="2"/>
     </row>
     <row r="19" spans="1:16">
-      <c r="A19" s="8" t="s">
+      <c r="A19" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B19" s="8" t="s">
+      <c r="B19" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C19" s="8" t="s">
+      <c r="C19" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D19" s="8" t="s">
+      <c r="D19" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E19" s="8" t="s">
+      <c r="E19" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F19" s="8" t="s">
+      <c r="F19" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="G19" s="8" t="s">
+      <c r="G19" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="H19" s="8" t="s">
+      <c r="H19" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="I19" s="8" t="s">
+      <c r="I19" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="J19" s="8" t="s">
+      <c r="J19" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="K19" s="8" t="s">
+      <c r="K19" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="L19" s="8" t="s">
+      <c r="L19" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="M19" s="8" t="s">
+      <c r="M19" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="N19" s="8" t="s">
+      <c r="N19" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="O19" s="8" t="s">
+      <c r="O19" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="P19" s="8" t="s">
+      <c r="P19" s="4" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="20" spans="1:16">
-      <c r="A20" s="3">
+      <c r="A20" s="2">
         <v>7782</v>
       </c>
-      <c r="B20" s="2" t="s">
+      <c r="B20" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C20" s="2" t="s">
+      <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D20" s="3">
+      <c r="D20" s="2">
         <v>7839</v>
       </c>
-      <c r="E20" s="4">
+      <c r="E20" s="3">
         <v>29746</v>
       </c>
-      <c r="F20" s="3">
+      <c r="F20" s="2">
         <v>2450</v>
       </c>
-      <c r="G20" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="H20" s="3">
-        <v>10</v>
-      </c>
-      <c r="I20" s="3">
+      <c r="G20" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H20" s="2">
+        <v>10</v>
+      </c>
+      <c r="I20" s="2">
         <v>7839</v>
       </c>
-      <c r="J20" s="2" t="s">
+      <c r="J20" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="K20" s="2" t="s">
+      <c r="K20" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="L20" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="M20" s="4">
+      <c r="L20" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M20" s="3">
         <v>29907</v>
       </c>
-      <c r="N20" s="3">
+      <c r="N20" s="2">
         <v>5000</v>
       </c>
-      <c r="O20" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="P20" s="3">
+      <c r="O20" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="P20" s="2">
         <v>10</v>
       </c>
     </row>
@@ -2235,4 +2229,1846 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AF375EF1-5952-493C-BBF0-E0DDA03DBBF8}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:V34"/>
+  <sheetViews>
+    <sheetView topLeftCell="A18" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="A19" sqref="A19:XFD38"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5"/>
+  <cols>
+    <col min="1" max="1" width="10.75" customWidth="1"/>
+    <col min="3" max="3" width="11.125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.25" customWidth="1"/>
+    <col min="5" max="5" width="11.125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="8" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:16" ht="20.25">
+      <c r="A1" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="B1" s="5"/>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
+      <c r="F1" s="5"/>
+      <c r="G1" s="5"/>
+      <c r="H1" s="5"/>
+      <c r="J1" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="K1" s="5"/>
+      <c r="L1" s="5"/>
+      <c r="N1" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="O1" s="5"/>
+      <c r="P1" s="5"/>
+    </row>
+    <row r="2" spans="1:16">
+      <c r="A2" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="J2" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="K2" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="L2" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="N2" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="O2" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="P2" s="4" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16">
+      <c r="A3" s="2">
+        <v>7782</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D3" s="2">
+        <v>7839</v>
+      </c>
+      <c r="E3" s="3">
+        <v>29746</v>
+      </c>
+      <c r="F3" s="2">
+        <v>2450</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H3" s="2">
+        <v>10</v>
+      </c>
+      <c r="J3" s="1">
+        <v>10</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="N3" s="1">
+        <v>1</v>
+      </c>
+      <c r="O3" s="1">
+        <v>700</v>
+      </c>
+      <c r="P3" s="1">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16">
+      <c r="A4" s="2">
+        <v>7839</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4" s="3">
+        <v>29907</v>
+      </c>
+      <c r="F4" s="2">
+        <v>5000</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H4" s="2">
+        <v>10</v>
+      </c>
+      <c r="J4" s="1">
+        <v>20</v>
+      </c>
+      <c r="K4" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="L4" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="N4" s="1">
+        <v>2</v>
+      </c>
+      <c r="O4" s="1">
+        <v>1201</v>
+      </c>
+      <c r="P4" s="1">
+        <v>1400</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16">
+      <c r="A5" s="2">
+        <v>7934</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5" s="2">
+        <v>7782</v>
+      </c>
+      <c r="E5" s="3">
+        <v>29974</v>
+      </c>
+      <c r="F5" s="2">
+        <v>1300</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H5" s="2">
+        <v>10</v>
+      </c>
+      <c r="J5" s="1">
+        <v>30</v>
+      </c>
+      <c r="K5" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="L5" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="N5" s="1">
+        <v>3</v>
+      </c>
+      <c r="O5" s="1">
+        <v>1401</v>
+      </c>
+      <c r="P5" s="1">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16">
+      <c r="A6" s="2">
+        <v>7369</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D6" s="2">
+        <v>7902</v>
+      </c>
+      <c r="E6" s="3">
+        <v>29572</v>
+      </c>
+      <c r="F6" s="2">
+        <v>800</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H6" s="2">
+        <v>20</v>
+      </c>
+      <c r="J6" s="1">
+        <v>40</v>
+      </c>
+      <c r="K6" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="L6" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="N6" s="1">
+        <v>4</v>
+      </c>
+      <c r="O6" s="1">
+        <v>2001</v>
+      </c>
+      <c r="P6" s="1">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16">
+      <c r="A7" s="2">
+        <v>7566</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D7" s="2">
+        <v>7839</v>
+      </c>
+      <c r="E7" s="3">
+        <v>29678</v>
+      </c>
+      <c r="F7" s="2">
+        <v>2975</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H7" s="2">
+        <v>20</v>
+      </c>
+      <c r="J7" s="1">
+        <v>50</v>
+      </c>
+      <c r="K7" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="L7" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="N7" s="1">
+        <v>5</v>
+      </c>
+      <c r="O7" s="1">
+        <v>3001</v>
+      </c>
+      <c r="P7" s="1">
+        <v>9999</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16">
+      <c r="A8" s="2">
+        <v>7788</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D8" s="2">
+        <v>7566</v>
+      </c>
+      <c r="E8" s="3">
+        <v>30294</v>
+      </c>
+      <c r="F8" s="2">
+        <v>3000</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H8" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16">
+      <c r="A9" s="2">
+        <v>7876</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D9" s="2">
+        <v>7788</v>
+      </c>
+      <c r="E9" s="3">
+        <v>30328</v>
+      </c>
+      <c r="F9" s="2">
+        <v>1100</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H9" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16">
+      <c r="A10" s="2">
+        <v>7902</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D10" s="2">
+        <v>7566</v>
+      </c>
+      <c r="E10" s="3">
+        <v>29923</v>
+      </c>
+      <c r="F10" s="2">
+        <v>3000</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H10" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16">
+      <c r="A11" s="2">
+        <v>7499</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D11" s="2">
+        <v>7698</v>
+      </c>
+      <c r="E11" s="3">
+        <v>29637</v>
+      </c>
+      <c r="F11" s="2">
+        <v>1600</v>
+      </c>
+      <c r="G11" s="2">
+        <v>300</v>
+      </c>
+      <c r="H11" s="2">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16">
+      <c r="A12" s="2">
+        <v>7521</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D12" s="2">
+        <v>7698</v>
+      </c>
+      <c r="E12" s="3">
+        <v>29639</v>
+      </c>
+      <c r="F12" s="2">
+        <v>1250</v>
+      </c>
+      <c r="G12" s="2">
+        <v>500</v>
+      </c>
+      <c r="H12" s="2">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16">
+      <c r="A13" s="2">
+        <v>7654</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D13" s="2">
+        <v>7698</v>
+      </c>
+      <c r="E13" s="3">
+        <v>29857</v>
+      </c>
+      <c r="F13" s="2">
+        <v>1250</v>
+      </c>
+      <c r="G13" s="2">
+        <v>1400</v>
+      </c>
+      <c r="H13" s="2">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16">
+      <c r="A14" s="2">
+        <v>7698</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D14" s="2">
+        <v>7839</v>
+      </c>
+      <c r="E14" s="3">
+        <v>29707</v>
+      </c>
+      <c r="F14" s="2">
+        <v>2850</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H14" s="2">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16">
+      <c r="A15" s="2">
+        <v>7844</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D15" s="2">
+        <v>7698</v>
+      </c>
+      <c r="E15" s="3">
+        <v>29837</v>
+      </c>
+      <c r="F15" s="2">
+        <v>1500</v>
+      </c>
+      <c r="G15" s="2">
+        <v>0</v>
+      </c>
+      <c r="H15" s="2">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16">
+      <c r="A16" s="2">
+        <v>7900</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D16" s="2">
+        <v>7698</v>
+      </c>
+      <c r="E16" s="3">
+        <v>29923</v>
+      </c>
+      <c r="F16" s="2">
+        <v>950</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H16" s="2">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="17" spans="1:22">
+      <c r="A17" s="2">
+        <v>8000</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D17" s="2">
+        <v>7698</v>
+      </c>
+      <c r="E17" s="3">
+        <v>29923</v>
+      </c>
+      <c r="F17" s="2">
+        <v>950</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H17" s="2"/>
+    </row>
+    <row r="20" spans="1:22">
+      <c r="A20" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="D20" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="E20" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="F20" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="G20" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="H20" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="I20" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="J20" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="K20" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="L20" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="M20" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="N20" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="O20" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="P20" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q20" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="R20" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="S20" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="T20" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="U20" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="V20" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="21" spans="1:22">
+      <c r="A21" s="1">
+        <v>10</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D21" s="2">
+        <v>7782</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="G21" s="2">
+        <v>7839</v>
+      </c>
+      <c r="H21" s="3">
+        <v>29746</v>
+      </c>
+      <c r="I21" s="2">
+        <v>2450</v>
+      </c>
+      <c r="J21" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="K21" s="2">
+        <v>10</v>
+      </c>
+      <c r="L21" s="1">
+        <v>4</v>
+      </c>
+      <c r="M21" s="1">
+        <v>2001</v>
+      </c>
+      <c r="N21" s="1">
+        <v>3000</v>
+      </c>
+      <c r="O21" s="2">
+        <v>7369</v>
+      </c>
+      <c r="P21" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q21" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="R21" s="2">
+        <v>7902</v>
+      </c>
+      <c r="S21" s="3">
+        <v>29572</v>
+      </c>
+      <c r="T21" s="2">
+        <v>800</v>
+      </c>
+      <c r="U21" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="V21" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="22" spans="1:22">
+      <c r="A22" s="1">
+        <v>10</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D22" s="2">
+        <v>7839</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G22" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H22" s="3">
+        <v>29907</v>
+      </c>
+      <c r="I22" s="2">
+        <v>5000</v>
+      </c>
+      <c r="J22" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="K22" s="2">
+        <v>10</v>
+      </c>
+      <c r="L22" s="1">
+        <v>5</v>
+      </c>
+      <c r="M22" s="1">
+        <v>3001</v>
+      </c>
+      <c r="N22" s="1">
+        <v>9999</v>
+      </c>
+    </row>
+    <row r="23" spans="1:22">
+      <c r="A23" s="1">
+        <v>10</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D23" s="2">
+        <v>7934</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G23" s="2">
+        <v>7782</v>
+      </c>
+      <c r="H23" s="3">
+        <v>29974</v>
+      </c>
+      <c r="I23" s="2">
+        <v>1300</v>
+      </c>
+      <c r="J23" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="K23" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="24" spans="1:22">
+      <c r="A24" s="1">
+        <v>20</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D24" s="2">
+        <v>7369</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G24" s="2">
+        <v>7902</v>
+      </c>
+      <c r="H24" s="3">
+        <v>29572</v>
+      </c>
+      <c r="I24" s="2">
+        <v>800</v>
+      </c>
+      <c r="J24" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="K24" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="25" spans="1:22">
+      <c r="A25" s="1">
+        <v>20</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D25" s="2">
+        <v>7566</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G25" s="2">
+        <v>7839</v>
+      </c>
+      <c r="H25" s="3">
+        <v>29678</v>
+      </c>
+      <c r="I25" s="2">
+        <v>2975</v>
+      </c>
+      <c r="J25" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="K25" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="26" spans="1:22">
+      <c r="A26" s="1">
+        <v>20</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D26" s="2">
+        <v>7788</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G26" s="2">
+        <v>7566</v>
+      </c>
+      <c r="H26" s="3">
+        <v>30294</v>
+      </c>
+      <c r="I26" s="2">
+        <v>3000</v>
+      </c>
+      <c r="J26" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="K26" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="27" spans="1:22">
+      <c r="A27" s="1">
+        <v>20</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D27" s="2">
+        <v>7876</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G27" s="2">
+        <v>7788</v>
+      </c>
+      <c r="H27" s="3">
+        <v>30328</v>
+      </c>
+      <c r="I27" s="2">
+        <v>1100</v>
+      </c>
+      <c r="J27" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="K27" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="28" spans="1:22">
+      <c r="A28" s="1">
+        <v>20</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D28" s="2">
+        <v>7902</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="F28" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G28" s="2">
+        <v>7566</v>
+      </c>
+      <c r="H28" s="3">
+        <v>29923</v>
+      </c>
+      <c r="I28" s="2">
+        <v>3000</v>
+      </c>
+      <c r="J28" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="K28" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="29" spans="1:22">
+      <c r="A29" s="1">
+        <v>30</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D29" s="2">
+        <v>7499</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F29" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G29" s="2">
+        <v>7698</v>
+      </c>
+      <c r="H29" s="3">
+        <v>29637</v>
+      </c>
+      <c r="I29" s="2">
+        <v>1600</v>
+      </c>
+      <c r="J29" s="2">
+        <v>300</v>
+      </c>
+      <c r="K29" s="2">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="30" spans="1:22">
+      <c r="A30" s="1">
+        <v>30</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D30" s="2">
+        <v>7521</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F30" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G30" s="2">
+        <v>7698</v>
+      </c>
+      <c r="H30" s="3">
+        <v>29639</v>
+      </c>
+      <c r="I30" s="2">
+        <v>1250</v>
+      </c>
+      <c r="J30" s="2">
+        <v>500</v>
+      </c>
+      <c r="K30" s="2">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="31" spans="1:22">
+      <c r="A31" s="1">
+        <v>30</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D31" s="2">
+        <v>7654</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F31" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G31" s="2">
+        <v>7698</v>
+      </c>
+      <c r="H31" s="3">
+        <v>29857</v>
+      </c>
+      <c r="I31" s="2">
+        <v>1250</v>
+      </c>
+      <c r="J31" s="2">
+        <v>1400</v>
+      </c>
+      <c r="K31" s="2">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="32" spans="1:22">
+      <c r="A32" s="1">
+        <v>30</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D32" s="2">
+        <v>7698</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F32" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G32" s="2">
+        <v>7839</v>
+      </c>
+      <c r="H32" s="3">
+        <v>29707</v>
+      </c>
+      <c r="I32" s="2">
+        <v>2850</v>
+      </c>
+      <c r="J32" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="K32" s="2">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="33" spans="1:14">
+      <c r="A33" s="1">
+        <v>30</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D33" s="2">
+        <v>7844</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F33" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G33" s="2">
+        <v>7698</v>
+      </c>
+      <c r="H33" s="3">
+        <v>29837</v>
+      </c>
+      <c r="I33" s="2">
+        <v>1500</v>
+      </c>
+      <c r="J33" s="2">
+        <v>0</v>
+      </c>
+      <c r="K33" s="2">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="34" spans="1:14">
+      <c r="A34" s="1">
+        <v>30</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D34" s="2">
+        <v>7900</v>
+      </c>
+      <c r="E34" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="F34" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G34" s="2">
+        <v>7698</v>
+      </c>
+      <c r="H34" s="3">
+        <v>29923</v>
+      </c>
+      <c r="I34" s="2">
+        <v>950</v>
+      </c>
+      <c r="J34" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="K34" s="2">
+        <v>30</v>
+      </c>
+      <c r="L34" s="1">
+        <v>1</v>
+      </c>
+      <c r="M34" s="1">
+        <v>700</v>
+      </c>
+      <c r="N34" s="1">
+        <v>1200</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="J1:L1"/>
+    <mergeCell ref="N1:P1"/>
+  </mergeCells>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C798270B-5C94-48D4-8764-BFAC79F5042A}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:R17"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4:H4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5"/>
+  <cols>
+    <col min="1" max="1" width="10.75" customWidth="1"/>
+    <col min="3" max="3" width="11.125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.25" customWidth="1"/>
+    <col min="5" max="5" width="11.125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="8" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="11.875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:18" ht="20.25">
+      <c r="A1" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="B1" s="5"/>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
+      <c r="F1" s="5"/>
+      <c r="G1" s="5"/>
+      <c r="H1" s="5"/>
+      <c r="J1" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="K1" s="5"/>
+      <c r="L1" s="5"/>
+      <c r="N1" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="O1" s="5"/>
+      <c r="P1" s="5"/>
+    </row>
+    <row r="2" spans="1:18">
+      <c r="A2" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="J2" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="K2" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="L2" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="N2" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="O2" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="P2" s="4" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18">
+      <c r="A3" s="2">
+        <v>7782</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D3" s="2">
+        <v>7839</v>
+      </c>
+      <c r="E3" s="3">
+        <v>29746</v>
+      </c>
+      <c r="F3" s="2">
+        <v>2450</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H3" s="2">
+        <v>10</v>
+      </c>
+      <c r="J3" s="1">
+        <v>10</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="N3" s="1">
+        <v>1</v>
+      </c>
+      <c r="O3" s="1">
+        <v>700</v>
+      </c>
+      <c r="P3" s="1">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18">
+      <c r="A4" s="2">
+        <v>7839</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4" s="3">
+        <v>29907</v>
+      </c>
+      <c r="F4" s="2">
+        <v>5000</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H4" s="2">
+        <v>10</v>
+      </c>
+      <c r="J4" s="1">
+        <v>20</v>
+      </c>
+      <c r="K4" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="L4" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="N4" s="1">
+        <v>2</v>
+      </c>
+      <c r="O4" s="1">
+        <v>1201</v>
+      </c>
+      <c r="P4" s="1">
+        <v>1400</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18">
+      <c r="A5" s="2">
+        <v>7934</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5" s="2">
+        <v>7782</v>
+      </c>
+      <c r="E5" s="3">
+        <v>29974</v>
+      </c>
+      <c r="F5" s="2">
+        <v>1300</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H5" s="2">
+        <v>10</v>
+      </c>
+      <c r="J5" s="1">
+        <v>30</v>
+      </c>
+      <c r="K5" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="L5" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="N5" s="1">
+        <v>3</v>
+      </c>
+      <c r="O5" s="1">
+        <v>1401</v>
+      </c>
+      <c r="P5" s="1">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18">
+      <c r="A6" s="2">
+        <v>7369</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D6" s="2">
+        <v>7902</v>
+      </c>
+      <c r="E6" s="3">
+        <v>29572</v>
+      </c>
+      <c r="F6" s="2">
+        <v>800</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H6" s="2">
+        <v>20</v>
+      </c>
+      <c r="J6" s="1">
+        <v>40</v>
+      </c>
+      <c r="K6" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="L6" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="N6" s="1">
+        <v>4</v>
+      </c>
+      <c r="O6" s="1">
+        <v>2001</v>
+      </c>
+      <c r="P6" s="1">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18">
+      <c r="A7" s="2">
+        <v>7566</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D7" s="2">
+        <v>7839</v>
+      </c>
+      <c r="E7" s="3">
+        <v>29678</v>
+      </c>
+      <c r="F7" s="2">
+        <v>2975</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H7" s="2">
+        <v>20</v>
+      </c>
+      <c r="J7" s="1">
+        <v>50</v>
+      </c>
+      <c r="K7" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="L7" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="N7" s="1">
+        <v>5</v>
+      </c>
+      <c r="O7" s="1">
+        <v>3001</v>
+      </c>
+      <c r="P7" s="1">
+        <v>9999</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18">
+      <c r="A8" s="2">
+        <v>7788</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D8" s="2">
+        <v>7566</v>
+      </c>
+      <c r="E8" s="3">
+        <v>30294</v>
+      </c>
+      <c r="F8" s="2">
+        <v>3000</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H8" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18">
+      <c r="A9" s="2">
+        <v>7876</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D9" s="2">
+        <v>7788</v>
+      </c>
+      <c r="E9" s="3">
+        <v>30328</v>
+      </c>
+      <c r="F9" s="2">
+        <v>1100</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H9" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18">
+      <c r="A10" s="2">
+        <v>7902</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D10" s="2">
+        <v>7566</v>
+      </c>
+      <c r="E10" s="3">
+        <v>29923</v>
+      </c>
+      <c r="F10" s="2">
+        <v>3000</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H10" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18">
+      <c r="A11" s="2">
+        <v>7499</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D11" s="2">
+        <v>7698</v>
+      </c>
+      <c r="E11" s="3">
+        <v>29637</v>
+      </c>
+      <c r="F11" s="2">
+        <v>1600</v>
+      </c>
+      <c r="G11" s="2">
+        <v>300</v>
+      </c>
+      <c r="H11" s="2">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18">
+      <c r="A12" s="2">
+        <v>7521</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D12" s="2">
+        <v>7698</v>
+      </c>
+      <c r="E12" s="3">
+        <v>29639</v>
+      </c>
+      <c r="F12" s="2">
+        <v>1250</v>
+      </c>
+      <c r="G12" s="2">
+        <v>500</v>
+      </c>
+      <c r="H12" s="2">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18">
+      <c r="A13" s="2">
+        <v>7654</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D13" s="2">
+        <v>7698</v>
+      </c>
+      <c r="E13" s="3">
+        <v>29857</v>
+      </c>
+      <c r="F13" s="2">
+        <v>1250</v>
+      </c>
+      <c r="G13" s="2">
+        <v>1400</v>
+      </c>
+      <c r="H13" s="2">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18">
+      <c r="A14" s="2">
+        <v>7698</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D14" s="2">
+        <v>7839</v>
+      </c>
+      <c r="E14" s="3">
+        <v>29707</v>
+      </c>
+      <c r="F14" s="2">
+        <v>2850</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H14" s="2">
+        <v>30</v>
+      </c>
+      <c r="K14" s="2">
+        <v>7782</v>
+      </c>
+      <c r="L14" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="M14" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="N14" s="2">
+        <v>7839</v>
+      </c>
+      <c r="O14" s="3">
+        <v>29746</v>
+      </c>
+      <c r="P14" s="2">
+        <v>2450</v>
+      </c>
+      <c r="Q14" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="R14" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18">
+      <c r="A15" s="2">
+        <v>7844</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D15" s="2">
+        <v>7698</v>
+      </c>
+      <c r="E15" s="3">
+        <v>29837</v>
+      </c>
+      <c r="F15" s="2">
+        <v>1500</v>
+      </c>
+      <c r="G15" s="2">
+        <v>0</v>
+      </c>
+      <c r="H15" s="2">
+        <v>30</v>
+      </c>
+      <c r="K15" s="2">
+        <v>7839</v>
+      </c>
+      <c r="L15" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="M15" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="N15" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="O15" s="3">
+        <v>29907</v>
+      </c>
+      <c r="P15" s="2">
+        <v>5000</v>
+      </c>
+      <c r="Q15" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="R15" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18">
+      <c r="A16" s="2">
+        <v>7900</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D16" s="2">
+        <v>7698</v>
+      </c>
+      <c r="E16" s="3">
+        <v>29923</v>
+      </c>
+      <c r="F16" s="2">
+        <v>950</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H16" s="2">
+        <v>30</v>
+      </c>
+      <c r="K16" s="2">
+        <v>7934</v>
+      </c>
+      <c r="L16" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="M16" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="N16" s="2">
+        <v>7782</v>
+      </c>
+      <c r="O16" s="3">
+        <v>29974</v>
+      </c>
+      <c r="P16" s="2">
+        <v>1300</v>
+      </c>
+      <c r="Q16" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="R16" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16">
+      <c r="A17" s="2">
+        <v>8000</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D17" s="2">
+        <v>7698</v>
+      </c>
+      <c r="E17" s="3">
+        <v>29923</v>
+      </c>
+      <c r="F17" s="2">
+        <v>950</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H17" s="2"/>
+      <c r="P17">
+        <f>AVERAGE(P14:P16)</f>
+        <v>2916.6666666666665</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="J1:L1"/>
+    <mergeCell ref="N1:P1"/>
+  </mergeCells>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>